--- a/nr-add-mapping-mos/ig/StructureDefinition-as-practitioner.xlsx
+++ b/nr-add-mapping-mos/ig/StructureDefinition-as-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T15:56:45+00:00</t>
+    <t>2025-01-03T12:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2160,7 +2160,7 @@
     <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
   </si>
   <si>
-    <t>pattern:system}
+    <t>value:system}
 exists:extension('https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type')}</t>
   </si>
   <si>
